--- a/Element Profiles/Relay-Element_Profile.xlsx
+++ b/Element Profiles/Relay-Element_Profile.xlsx
@@ -1116,7 +1116,7 @@
     <row r="1" ht="45" customHeight="1">
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Export date: Feb 15, 2023</t>
+          <t>Export date: Apr 04, 2023</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
